--- a/data_craw/quarter/balance_sheet_quarter/hdb.xlsx
+++ b/data_craw/quarter/balance_sheet_quarter/hdb.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,53 +573,45 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2039463000000</v>
+        <v>2123658000000</v>
       </c>
       <c r="C4" t="n">
-        <v>2004563000000</v>
+        <v>2257255000000</v>
       </c>
       <c r="D4" t="n">
-        <v>1892955000000</v>
+        <v>2351092000000</v>
       </c>
       <c r="E4" t="n">
-        <v>2298266000000</v>
+        <v>2194774000000</v>
       </c>
       <c r="F4" t="n">
-        <v>2123658000000</v>
+        <v>1940895000000</v>
       </c>
       <c r="G4" t="n">
-        <v>2257255000000</v>
+        <v>2445611000000</v>
       </c>
       <c r="H4" t="n">
-        <v>2351092000000</v>
+        <v>2627817000000</v>
       </c>
       <c r="I4" t="n">
-        <v>2194774000000</v>
+        <v>2709876000000</v>
       </c>
       <c r="J4" t="n">
-        <v>1940895000000</v>
+        <v>2596855000000</v>
       </c>
       <c r="K4" t="n">
-        <v>2445611000000</v>
+        <v>2937994000000</v>
       </c>
       <c r="L4" t="n">
-        <v>2627817000000</v>
+        <v>2691430000000</v>
       </c>
       <c r="M4" t="n">
-        <v>2709876000000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2596855000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2937994000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2691430000000</v>
-      </c>
-      <c r="Q4" t="n">
         <v>2902517000000</v>
       </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -674,53 +666,45 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6403131000000</v>
+        <v>4661966000000</v>
       </c>
       <c r="C7" t="n">
-        <v>4503540000000</v>
+        <v>7788112000000</v>
       </c>
       <c r="D7" t="n">
-        <v>1891534000000</v>
+        <v>6209185000000</v>
       </c>
       <c r="E7" t="n">
-        <v>3185578000000</v>
+        <v>9633778000000</v>
       </c>
       <c r="F7" t="n">
-        <v>4661966000000</v>
+        <v>8949735000000</v>
       </c>
       <c r="G7" t="n">
-        <v>7788112000000</v>
+        <v>11847980000000</v>
       </c>
       <c r="H7" t="n">
-        <v>6209185000000</v>
+        <v>9808491000000</v>
       </c>
       <c r="I7" t="n">
-        <v>9633778000000</v>
+        <v>11127254000000</v>
       </c>
       <c r="J7" t="n">
-        <v>8949735000000</v>
+        <v>9869836000000</v>
       </c>
       <c r="K7" t="n">
-        <v>11847980000000</v>
+        <v>11273345000000</v>
       </c>
       <c r="L7" t="n">
-        <v>9808491000000</v>
+        <v>12162272000000</v>
       </c>
       <c r="M7" t="n">
-        <v>11127254000000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9869836000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>11273345000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>12162272000000</v>
-      </c>
-      <c r="Q7" t="n">
         <v>14769196000000</v>
       </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -798,53 +782,45 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21531562000000</v>
+        <v>32765417000000</v>
       </c>
       <c r="C11" t="n">
-        <v>24664877000000</v>
+        <v>44810934000000</v>
       </c>
       <c r="D11" t="n">
-        <v>18920348000000</v>
+        <v>50447584000000</v>
       </c>
       <c r="E11" t="n">
-        <v>23330471000000</v>
+        <v>44824126000000</v>
       </c>
       <c r="F11" t="n">
-        <v>32765417000000</v>
+        <v>52371403000000</v>
       </c>
       <c r="G11" t="n">
-        <v>44810934000000</v>
+        <v>55942644000000</v>
       </c>
       <c r="H11" t="n">
-        <v>50447584000000</v>
+        <v>49371645000000</v>
       </c>
       <c r="I11" t="n">
-        <v>44824126000000</v>
+        <v>41470126000000</v>
       </c>
       <c r="J11" t="n">
-        <v>52371403000000</v>
+        <v>50666808000000</v>
       </c>
       <c r="K11" t="n">
-        <v>55942644000000</v>
+        <v>49132317000000</v>
       </c>
       <c r="L11" t="n">
-        <v>49371645000000</v>
+        <v>56768627000000</v>
       </c>
       <c r="M11" t="n">
-        <v>41470126000000</v>
-      </c>
-      <c r="N11" t="n">
-        <v>50666808000000</v>
-      </c>
-      <c r="O11" t="n">
-        <v>49132317000000</v>
-      </c>
-      <c r="P11" t="n">
-        <v>56768627000000</v>
-      </c>
-      <c r="Q11" t="n">
         <v>87190858000000</v>
       </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -853,53 +829,45 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20131562000000</v>
+        <v>32765417000000</v>
       </c>
       <c r="C12" t="n">
-        <v>23854877000000</v>
+        <v>44710934000000</v>
       </c>
       <c r="D12" t="n">
-        <v>18720348000000</v>
+        <v>49851459000000</v>
       </c>
       <c r="E12" t="n">
-        <v>23330471000000</v>
+        <v>44008716000000</v>
       </c>
       <c r="F12" t="n">
-        <v>32765417000000</v>
+        <v>52171403000000</v>
       </c>
       <c r="G12" t="n">
-        <v>44710934000000</v>
+        <v>55837298000000</v>
       </c>
       <c r="H12" t="n">
-        <v>49851459000000</v>
+        <v>49071645000000</v>
       </c>
       <c r="I12" t="n">
-        <v>44008716000000</v>
+        <v>40018840000000</v>
       </c>
       <c r="J12" t="n">
-        <v>52171403000000</v>
+        <v>47779476000000</v>
       </c>
       <c r="K12" t="n">
-        <v>55837298000000</v>
+        <v>40322487000000</v>
       </c>
       <c r="L12" t="n">
-        <v>49071645000000</v>
+        <v>48238627000000</v>
       </c>
       <c r="M12" t="n">
-        <v>40018840000000</v>
-      </c>
-      <c r="N12" t="n">
-        <v>47779476000000</v>
-      </c>
-      <c r="O12" t="n">
-        <v>40322487000000</v>
-      </c>
-      <c r="P12" t="n">
-        <v>48238627000000</v>
-      </c>
-      <c r="Q12" t="n">
         <v>80287093000000</v>
       </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -907,50 +875,44 @@
           <t>2. Trả trước cho người bán ngắn hạn</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>1400000000000</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>810000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="D13" t="n">
+        <v>596125000000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>815410000000</v>
+      </c>
+      <c r="F13" t="n">
         <v>200000000000</v>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>100000000000</v>
+        <v>105346000000</v>
       </c>
       <c r="H13" t="n">
-        <v>596125000000</v>
+        <v>300000000000</v>
       </c>
       <c r="I13" t="n">
-        <v>815410000000</v>
+        <v>1541286000000</v>
       </c>
       <c r="J13" t="n">
-        <v>200000000000</v>
+        <v>2887332000000</v>
       </c>
       <c r="K13" t="n">
-        <v>105346000000</v>
+        <v>8809830000000</v>
       </c>
       <c r="L13" t="n">
-        <v>300000000000</v>
+        <v>8530000000000</v>
       </c>
       <c r="M13" t="n">
-        <v>1541286000000</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2887332000000</v>
-      </c>
-      <c r="O13" t="n">
-        <v>8809830000000</v>
-      </c>
-      <c r="P13" t="n">
-        <v>8530000000000</v>
-      </c>
-      <c r="Q13" t="n">
         <v>80287093000000</v>
       </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1084,13 +1046,13 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>6903765000000</v>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="n">
-        <v>6903765000000</v>
-      </c>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1099,53 +1061,45 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1847534000000</v>
+        <v>9221967000000</v>
       </c>
       <c r="C20" t="n">
-        <v>4643488000000</v>
+        <v>12478102000000</v>
       </c>
       <c r="D20" t="n">
-        <v>4812614000000</v>
+        <v>10977154000000</v>
       </c>
       <c r="E20" t="n">
-        <v>3049574000000</v>
+        <v>10440600000000</v>
       </c>
       <c r="F20" t="n">
-        <v>9221967000000</v>
+        <v>12880397000000</v>
       </c>
       <c r="G20" t="n">
-        <v>12478102000000</v>
+        <v>11198067000000</v>
       </c>
       <c r="H20" t="n">
-        <v>10977154000000</v>
+        <v>10046933000000</v>
       </c>
       <c r="I20" t="n">
-        <v>10440600000000</v>
+        <v>3407027000000</v>
       </c>
       <c r="J20" t="n">
-        <v>12880397000000</v>
+        <v>2383237000000</v>
       </c>
       <c r="K20" t="n">
-        <v>11198067000000</v>
+        <v>1797822000000</v>
       </c>
       <c r="L20" t="n">
-        <v>10046933000000</v>
+        <v>3867579000000</v>
       </c>
       <c r="M20" t="n">
-        <v>3407027000000</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2383237000000</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1797822000000</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3867579000000</v>
-      </c>
-      <c r="Q20" t="n">
         <v>7305631000000</v>
       </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1154,53 +1108,45 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1853534000000</v>
+        <v>9243665000000</v>
       </c>
       <c r="C21" t="n">
-        <v>4650988000000</v>
+        <v>12478245000000</v>
       </c>
       <c r="D21" t="n">
-        <v>4816174000000</v>
+        <v>10977297000000</v>
       </c>
       <c r="E21" t="n">
-        <v>3071272000000</v>
+        <v>10443805000000</v>
       </c>
       <c r="F21" t="n">
-        <v>9243665000000</v>
+        <v>12883602000000</v>
       </c>
       <c r="G21" t="n">
-        <v>12478245000000</v>
+        <v>11200948000000</v>
       </c>
       <c r="H21" t="n">
-        <v>10977297000000</v>
+        <v>10049814000000</v>
       </c>
       <c r="I21" t="n">
-        <v>10443805000000</v>
+        <v>3409908</v>
       </c>
       <c r="J21" t="n">
-        <v>12883602000000</v>
+        <v>2386118000000</v>
       </c>
       <c r="K21" t="n">
-        <v>11200948000000</v>
+        <v>1797822000000</v>
       </c>
       <c r="L21" t="n">
-        <v>10049814000000</v>
+        <v>3867579000000</v>
       </c>
       <c r="M21" t="n">
-        <v>3409908</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2386118000000</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1797822000000</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3867579000000</v>
-      </c>
-      <c r="Q21" t="n">
         <v>7305631000000</v>
       </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1209,44 +1155,36 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-6000000000</v>
+        <v>-21698000000</v>
       </c>
       <c r="C22" t="n">
-        <v>-7500000000</v>
+        <v>-143000000</v>
       </c>
       <c r="D22" t="n">
-        <v>-3560000000</v>
+        <v>-143000000</v>
       </c>
       <c r="E22" t="n">
-        <v>-21698000000</v>
+        <v>-3205000000</v>
       </c>
       <c r="F22" t="n">
-        <v>-21698000000</v>
+        <v>-3205000000</v>
       </c>
       <c r="G22" t="n">
-        <v>-143000000</v>
+        <v>-2881000000</v>
       </c>
       <c r="H22" t="n">
-        <v>-143000000</v>
+        <v>-2881000000</v>
       </c>
       <c r="I22" t="n">
-        <v>-3205000000</v>
+        <v>-2881000000</v>
       </c>
       <c r="J22" t="n">
-        <v>-3205000000</v>
-      </c>
-      <c r="K22" t="n">
         <v>-2881000000</v>
       </c>
-      <c r="L22" t="n">
-        <v>-2881000000</v>
-      </c>
-      <c r="M22" t="n">
-        <v>-2881000000</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2881000000</v>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
@@ -1257,34 +1195,32 @@
           <t>V.Tài sản ngắn hạn khác</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>1650000000</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>85426000000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>56611000000</v>
+      </c>
+      <c r="F23" t="n">
+        <v>48528000000</v>
+      </c>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>85426000000</v>
-      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>56611000000</v>
-      </c>
-      <c r="J23" t="n">
-        <v>48528000000</v>
-      </c>
+        <v>16070000000</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>16070000000</v>
+        <v>205729000000</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="n">
-        <v>205729000000</v>
-      </c>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1431,53 +1367,45 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166821000000</v>
+        <v>154887000000</v>
       </c>
       <c r="C30" t="n">
-        <v>166821000000</v>
+        <v>153636000000</v>
       </c>
       <c r="D30" t="n">
-        <v>161050000000</v>
+        <v>153636000000</v>
       </c>
       <c r="E30" t="n">
-        <v>154887000000</v>
+        <v>143003000000</v>
       </c>
       <c r="F30" t="n">
-        <v>154887000000</v>
+        <v>143003000000</v>
       </c>
       <c r="G30" t="n">
-        <v>153636000000</v>
+        <v>123831000000</v>
       </c>
       <c r="H30" t="n">
-        <v>153636000000</v>
+        <v>143331000000</v>
       </c>
       <c r="I30" t="n">
-        <v>143003000000</v>
+        <v>143820000000</v>
       </c>
       <c r="J30" t="n">
-        <v>143003000000</v>
+        <v>143820000000</v>
       </c>
       <c r="K30" t="n">
-        <v>123831000000</v>
+        <v>144023000000</v>
       </c>
       <c r="L30" t="n">
-        <v>143331000000</v>
+        <v>144023000000</v>
       </c>
       <c r="M30" t="n">
-        <v>143820000000</v>
-      </c>
-      <c r="N30" t="n">
-        <v>143820000000</v>
-      </c>
-      <c r="O30" t="n">
-        <v>144023000000</v>
-      </c>
-      <c r="P30" t="n">
-        <v>144023000000</v>
-      </c>
-      <c r="Q30" t="n">
         <v>143858000000</v>
       </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1564,25 +1492,25 @@
         <v>185117000000</v>
       </c>
       <c r="E34" t="n">
-        <v>185117000000</v>
+        <v>166421000000</v>
       </c>
       <c r="F34" t="n">
-        <v>185117000000</v>
+        <v>166421000000</v>
       </c>
       <c r="G34" t="n">
-        <v>185117000000</v>
+        <v>144421000000</v>
       </c>
       <c r="H34" t="n">
-        <v>185117000000</v>
+        <v>163921000000</v>
       </c>
       <c r="I34" t="n">
-        <v>166421000000</v>
+        <v>163921000000</v>
       </c>
       <c r="J34" t="n">
-        <v>166421000000</v>
+        <v>163921000000</v>
       </c>
       <c r="K34" t="n">
-        <v>144421000000</v>
+        <v>163921000000</v>
       </c>
       <c r="L34" t="n">
         <v>163921000000</v>
@@ -1590,18 +1518,10 @@
       <c r="M34" t="n">
         <v>163921000000</v>
       </c>
-      <c r="N34" t="n">
-        <v>163921000000</v>
-      </c>
-      <c r="O34" t="n">
-        <v>163921000000</v>
-      </c>
-      <c r="P34" t="n">
-        <v>163921000000</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>163921000000</v>
-      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1656,53 +1576,45 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-18296000000</v>
+        <v>-30230000000</v>
       </c>
       <c r="C37" t="n">
-        <v>-18296000000</v>
+        <v>-31481000000</v>
       </c>
       <c r="D37" t="n">
-        <v>-24067000000</v>
+        <v>-31481000000</v>
       </c>
       <c r="E37" t="n">
-        <v>-30230000000</v>
+        <v>-23418000000</v>
       </c>
       <c r="F37" t="n">
-        <v>-30230000000</v>
+        <v>-23418000000</v>
       </c>
       <c r="G37" t="n">
-        <v>-31481000000</v>
+        <v>-20590000000</v>
       </c>
       <c r="H37" t="n">
-        <v>-31481000000</v>
+        <v>-20590000000</v>
       </c>
       <c r="I37" t="n">
-        <v>-23418000000</v>
+        <v>-20101000000</v>
       </c>
       <c r="J37" t="n">
-        <v>-23418000000</v>
+        <v>-20101000000</v>
       </c>
       <c r="K37" t="n">
-        <v>-20590000000</v>
+        <v>-19898000000</v>
       </c>
       <c r="L37" t="n">
-        <v>-20590000000</v>
+        <v>-19898000000</v>
       </c>
       <c r="M37" t="n">
-        <v>-20101000000</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-20101000000</v>
-      </c>
-      <c r="O37" t="n">
-        <v>-19898000000</v>
-      </c>
-      <c r="P37" t="n">
-        <v>-19898000000</v>
-      </c>
-      <c r="Q37" t="n">
         <v>-20063000000</v>
       </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1711,53 +1623,45 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>859406000000</v>
+        <v>1008126000000</v>
       </c>
       <c r="C38" t="n">
-        <v>903561000000</v>
+        <v>1059428000000</v>
       </c>
       <c r="D38" t="n">
-        <v>901646000000</v>
+        <v>1198085000000</v>
       </c>
       <c r="E38" t="n">
-        <v>940810000000</v>
+        <v>1179213000000</v>
       </c>
       <c r="F38" t="n">
-        <v>1008126000000</v>
+        <v>1175974000000</v>
       </c>
       <c r="G38" t="n">
-        <v>1059428000000</v>
+        <v>1366325000000</v>
       </c>
       <c r="H38" t="n">
-        <v>1198085000000</v>
+        <v>1318816000000</v>
       </c>
       <c r="I38" t="n">
-        <v>1179213000000</v>
+        <v>1294275000000</v>
       </c>
       <c r="J38" t="n">
-        <v>1175974000000</v>
+        <v>1303783000000</v>
       </c>
       <c r="K38" t="n">
-        <v>1366325000000</v>
+        <v>1315057000000</v>
       </c>
       <c r="L38" t="n">
-        <v>1318816000000</v>
+        <v>1292178000000</v>
       </c>
       <c r="M38" t="n">
-        <v>1294275000000</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1303783000000</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1315057000000</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1292178000000</v>
-      </c>
-      <c r="Q38" t="n">
         <v>1307970000000</v>
       </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1766,53 +1670,45 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>492663000000</v>
+        <v>591131000000</v>
       </c>
       <c r="C39" t="n">
-        <v>532147000000</v>
+        <v>601398000000</v>
       </c>
       <c r="D39" t="n">
-        <v>529520000000</v>
+        <v>604856000000</v>
       </c>
       <c r="E39" t="n">
-        <v>539196000000</v>
+        <v>596011000000</v>
       </c>
       <c r="F39" t="n">
-        <v>591131000000</v>
+        <v>579736000000</v>
       </c>
       <c r="G39" t="n">
-        <v>601398000000</v>
+        <v>663478000000</v>
       </c>
       <c r="H39" t="n">
-        <v>604856000000</v>
+        <v>640621000000</v>
       </c>
       <c r="I39" t="n">
-        <v>596011000000</v>
+        <v>624601000000</v>
       </c>
       <c r="J39" t="n">
-        <v>579736000000</v>
+        <v>632761000000</v>
       </c>
       <c r="K39" t="n">
-        <v>663478000000</v>
+        <v>631621000000</v>
       </c>
       <c r="L39" t="n">
-        <v>640621000000</v>
+        <v>617503000000</v>
       </c>
       <c r="M39" t="n">
-        <v>624601000000</v>
-      </c>
-      <c r="N39" t="n">
-        <v>632761000000</v>
-      </c>
-      <c r="O39" t="n">
-        <v>631621000000</v>
-      </c>
-      <c r="P39" t="n">
-        <v>617503000000</v>
-      </c>
-      <c r="Q39" t="n">
         <v>637441000000</v>
       </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1821,53 +1717,45 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1124492000000</v>
+        <v>1293089000000</v>
       </c>
       <c r="C40" t="n">
-        <v>1179231000000</v>
+        <v>1318875000000</v>
       </c>
       <c r="D40" t="n">
-        <v>1195499000000</v>
+        <v>1344603000000</v>
       </c>
       <c r="E40" t="n">
-        <v>1224477000000</v>
+        <v>1360248000000</v>
       </c>
       <c r="F40" t="n">
-        <v>1293089000000</v>
+        <v>1367537000000</v>
       </c>
       <c r="G40" t="n">
-        <v>1318875000000</v>
+        <v>1475070000000</v>
       </c>
       <c r="H40" t="n">
-        <v>1344603000000</v>
+        <v>1475909000000</v>
       </c>
       <c r="I40" t="n">
-        <v>1360248000000</v>
+        <v>1476015000000</v>
       </c>
       <c r="J40" t="n">
-        <v>1367537000000</v>
+        <v>1509736000000</v>
       </c>
       <c r="K40" t="n">
-        <v>1475070000000</v>
+        <v>1519411000000</v>
       </c>
       <c r="L40" t="n">
-        <v>1475909000000</v>
+        <v>1524634000000</v>
       </c>
       <c r="M40" t="n">
-        <v>1476015000000</v>
-      </c>
-      <c r="N40" t="n">
-        <v>1509736000000</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1519411000000</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1524634000000</v>
-      </c>
-      <c r="Q40" t="n">
         <v>1570950000000</v>
       </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1876,53 +1764,45 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-631829000000</v>
+        <v>-701958000000</v>
       </c>
       <c r="C41" t="n">
-        <v>-647084000000</v>
+        <v>-717477000000</v>
       </c>
       <c r="D41" t="n">
-        <v>-665979000000</v>
+        <v>-739747000000</v>
       </c>
       <c r="E41" t="n">
-        <v>-685281000000</v>
+        <v>-764237000000</v>
       </c>
       <c r="F41" t="n">
-        <v>-701958000000</v>
+        <v>-787801000000</v>
       </c>
       <c r="G41" t="n">
-        <v>-717477000000</v>
+        <v>-811592000000</v>
       </c>
       <c r="H41" t="n">
-        <v>-739747000000</v>
+        <v>-835288000000</v>
       </c>
       <c r="I41" t="n">
-        <v>-764237000000</v>
+        <v>-851414000000</v>
       </c>
       <c r="J41" t="n">
-        <v>-787801000000</v>
+        <v>-876975000000</v>
       </c>
       <c r="K41" t="n">
-        <v>-811592000000</v>
+        <v>-887790000000</v>
       </c>
       <c r="L41" t="n">
-        <v>-835288000000</v>
+        <v>-907131000000</v>
       </c>
       <c r="M41" t="n">
-        <v>-851414000000</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-876975000000</v>
-      </c>
-      <c r="O41" t="n">
-        <v>-887790000000</v>
-      </c>
-      <c r="P41" t="n">
-        <v>-907131000000</v>
-      </c>
-      <c r="Q41" t="n">
         <v>-933509000000</v>
       </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2000,53 +1880,45 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>366743000000</v>
+        <v>416995000000</v>
       </c>
       <c r="C45" t="n">
-        <v>371414000000</v>
+        <v>458030000000</v>
       </c>
       <c r="D45" t="n">
-        <v>372126000000</v>
+        <v>593229000000</v>
       </c>
       <c r="E45" t="n">
-        <v>401614000000</v>
+        <v>583202000000</v>
       </c>
       <c r="F45" t="n">
-        <v>416995000000</v>
+        <v>596238000000</v>
       </c>
       <c r="G45" t="n">
-        <v>458030000000</v>
+        <v>702847000000</v>
       </c>
       <c r="H45" t="n">
-        <v>593229000000</v>
+        <v>678195000000</v>
       </c>
       <c r="I45" t="n">
-        <v>583202000000</v>
+        <v>669674000000</v>
       </c>
       <c r="J45" t="n">
-        <v>596238000000</v>
+        <v>671022000000</v>
       </c>
       <c r="K45" t="n">
-        <v>702847000000</v>
+        <v>683436000000</v>
       </c>
       <c r="L45" t="n">
-        <v>678195000000</v>
+        <v>674675000000</v>
       </c>
       <c r="M45" t="n">
-        <v>669674000000</v>
-      </c>
-      <c r="N45" t="n">
-        <v>671022000000</v>
-      </c>
-      <c r="O45" t="n">
-        <v>683436000000</v>
-      </c>
-      <c r="P45" t="n">
-        <v>674675000000</v>
-      </c>
-      <c r="Q45" t="n">
         <v>670529000000</v>
       </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2055,53 +1927,45 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>568687000000</v>
+        <v>636839000000</v>
       </c>
       <c r="C46" t="n">
-        <v>575871000000</v>
+        <v>686263000000</v>
       </c>
       <c r="D46" t="n">
-        <v>579418000000</v>
+        <v>832993000000</v>
       </c>
       <c r="E46" t="n">
-        <v>614010000000</v>
+        <v>834627000000</v>
       </c>
       <c r="F46" t="n">
-        <v>636839000000</v>
+        <v>859331000000</v>
       </c>
       <c r="G46" t="n">
-        <v>686263000000</v>
+        <v>977488000000</v>
       </c>
       <c r="H46" t="n">
-        <v>832993000000</v>
+        <v>964575000000</v>
       </c>
       <c r="I46" t="n">
-        <v>834627000000</v>
+        <v>967645000000</v>
       </c>
       <c r="J46" t="n">
-        <v>859331000000</v>
+        <v>981086000000</v>
       </c>
       <c r="K46" t="n">
-        <v>977488000000</v>
+        <v>1006273000000</v>
       </c>
       <c r="L46" t="n">
-        <v>964575000000</v>
+        <v>1009969000000</v>
       </c>
       <c r="M46" t="n">
-        <v>967645000000</v>
-      </c>
-      <c r="N46" t="n">
-        <v>981086000000</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1006273000000</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1009969000000</v>
-      </c>
-      <c r="Q46" t="n">
         <v>1016505000000</v>
       </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2110,53 +1974,45 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-201944000000</v>
+        <v>-19844000000</v>
       </c>
       <c r="C47" t="n">
-        <v>-204457000000</v>
+        <v>-228233000000</v>
       </c>
       <c r="D47" t="n">
-        <v>-207292000000</v>
+        <v>-239764000000</v>
       </c>
       <c r="E47" t="n">
-        <v>-212396000000</v>
+        <v>-251425000000</v>
       </c>
       <c r="F47" t="n">
-        <v>-19844000000</v>
+        <v>-263093000000</v>
       </c>
       <c r="G47" t="n">
-        <v>-228233000000</v>
+        <v>-274641000000</v>
       </c>
       <c r="H47" t="n">
-        <v>-239764000000</v>
+        <v>-286380000000</v>
       </c>
       <c r="I47" t="n">
-        <v>-251425000000</v>
+        <v>-297971000000</v>
       </c>
       <c r="J47" t="n">
-        <v>-263093000000</v>
+        <v>-310064000000</v>
       </c>
       <c r="K47" t="n">
-        <v>-274641000000</v>
+        <v>-322837000000</v>
       </c>
       <c r="L47" t="n">
-        <v>-286380000000</v>
+        <v>-335294000000</v>
       </c>
       <c r="M47" t="n">
-        <v>-297971000000</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-310064000000</v>
-      </c>
-      <c r="O47" t="n">
-        <v>-322837000000</v>
-      </c>
-      <c r="P47" t="n">
-        <v>-335294000000</v>
-      </c>
-      <c r="Q47" t="n">
         <v>-345976000000</v>
       </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2234,32 +2090,24 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>44108000000</v>
+        <v>35425000000</v>
       </c>
       <c r="C51" t="n">
-        <v>44098000000</v>
+        <v>20860000000</v>
       </c>
       <c r="D51" t="n">
-        <v>44083000000</v>
+        <v>20847000000</v>
       </c>
       <c r="E51" t="n">
-        <v>44068000000</v>
+        <v>20835000000</v>
       </c>
       <c r="F51" t="n">
-        <v>35425000000</v>
-      </c>
-      <c r="G51" t="n">
-        <v>20860000000</v>
-      </c>
-      <c r="H51" t="n">
-        <v>20847000000</v>
-      </c>
-      <c r="I51" t="n">
-        <v>20835000000</v>
-      </c>
-      <c r="J51" t="n">
         <v>20823000000</v>
       </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
@@ -2275,32 +2123,24 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>44295000000</v>
+        <v>35667000000</v>
       </c>
       <c r="C52" t="n">
-        <v>44295000000</v>
+        <v>21058000000</v>
       </c>
       <c r="D52" t="n">
-        <v>44295000000</v>
+        <v>21058000000</v>
       </c>
       <c r="E52" t="n">
-        <v>44295000000</v>
+        <v>21058000000</v>
       </c>
       <c r="F52" t="n">
-        <v>35667000000</v>
-      </c>
-      <c r="G52" t="n">
         <v>21058000000</v>
       </c>
-      <c r="H52" t="n">
-        <v>21058000000</v>
-      </c>
-      <c r="I52" t="n">
-        <v>21058000000</v>
-      </c>
-      <c r="J52" t="n">
-        <v>21058000000</v>
-      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
@@ -2316,32 +2156,24 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-187000000</v>
+        <v>-242000000</v>
       </c>
       <c r="C53" t="n">
-        <v>-197000000</v>
+        <v>-198000000</v>
       </c>
       <c r="D53" t="n">
-        <v>-212000000</v>
+        <v>-211000000</v>
       </c>
       <c r="E53" t="n">
-        <v>-227000000</v>
+        <v>-233000000</v>
       </c>
       <c r="F53" t="n">
-        <v>-242000000</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-198000000</v>
-      </c>
-      <c r="H53" t="n">
-        <v>-211000000</v>
-      </c>
-      <c r="I53" t="n">
-        <v>-233000000</v>
-      </c>
-      <c r="J53" t="n">
         <v>-235000000</v>
       </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
@@ -2357,53 +2189,45 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>7693859000000</v>
+        <v>11835405000000</v>
       </c>
       <c r="C54" t="n">
-        <v>11804784000000</v>
+        <v>15934468000000</v>
       </c>
       <c r="D54" t="n">
-        <v>11862609000000</v>
+        <v>15824549000000</v>
       </c>
       <c r="E54" t="n">
-        <v>10963917000000</v>
+        <v>18213053000000</v>
       </c>
       <c r="F54" t="n">
-        <v>11835405000000</v>
+        <v>20657719000000</v>
       </c>
       <c r="G54" t="n">
-        <v>15934468000000</v>
+        <v>25414855000000</v>
       </c>
       <c r="H54" t="n">
-        <v>15824549000000</v>
+        <v>24768150000000</v>
       </c>
       <c r="I54" t="n">
-        <v>18213053000000</v>
+        <v>30156110000000</v>
       </c>
       <c r="J54" t="n">
-        <v>20657719000000</v>
+        <v>32378998000000</v>
       </c>
       <c r="K54" t="n">
-        <v>25414855000000</v>
+        <v>40128470000000</v>
       </c>
       <c r="L54" t="n">
-        <v>24768150000000</v>
+        <v>40843864000000</v>
       </c>
       <c r="M54" t="n">
-        <v>30156110000000</v>
-      </c>
-      <c r="N54" t="n">
-        <v>32378998000000</v>
-      </c>
-      <c r="O54" t="n">
-        <v>40128470000000</v>
-      </c>
-      <c r="P54" t="n">
-        <v>40843864000000</v>
-      </c>
-      <c r="Q54" t="n">
         <v>41892578000000</v>
       </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2412,53 +2236,45 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2830343000000</v>
+        <v>7038528000000</v>
       </c>
       <c r="C55" t="n">
-        <v>6179990000000</v>
+        <v>10864443000000</v>
       </c>
       <c r="D55" t="n">
-        <v>6497695000000</v>
+        <v>10475245000000</v>
       </c>
       <c r="E55" t="n">
-        <v>6063584000000</v>
+        <v>12606066000000</v>
       </c>
       <c r="F55" t="n">
-        <v>7038528000000</v>
+        <v>15453115000000</v>
       </c>
       <c r="G55" t="n">
-        <v>10864443000000</v>
+        <v>20234815000000</v>
       </c>
       <c r="H55" t="n">
-        <v>10475245000000</v>
+        <v>19285746000000</v>
       </c>
       <c r="I55" t="n">
-        <v>12606066000000</v>
+        <v>24098012000000</v>
       </c>
       <c r="J55" t="n">
-        <v>15453115000000</v>
+        <v>26129638000000</v>
       </c>
       <c r="K55" t="n">
-        <v>20234815000000</v>
+        <v>33406609000000</v>
       </c>
       <c r="L55" t="n">
-        <v>19285746000000</v>
+        <v>33290341000000</v>
       </c>
       <c r="M55" t="n">
-        <v>24098012000000</v>
-      </c>
-      <c r="N55" t="n">
-        <v>26129638000000</v>
-      </c>
-      <c r="O55" t="n">
-        <v>33406609000000</v>
-      </c>
-      <c r="P55" t="n">
-        <v>33290341000000</v>
-      </c>
-      <c r="Q55" t="n">
         <v>34204669000000</v>
       </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2467,53 +2283,45 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3314583000000</v>
+        <v>2883715000000</v>
       </c>
       <c r="C56" t="n">
-        <v>3197572000000</v>
+        <v>3090539000000</v>
       </c>
       <c r="D56" t="n">
-        <v>3400174000000</v>
+        <v>3383654000000</v>
       </c>
       <c r="E56" t="n">
-        <v>2946670000000</v>
+        <v>3601918000000</v>
       </c>
       <c r="F56" t="n">
-        <v>2883715000000</v>
+        <v>3403365000000</v>
       </c>
       <c r="G56" t="n">
-        <v>3090539000000</v>
+        <v>3256425000000</v>
       </c>
       <c r="H56" t="n">
-        <v>3383654000000</v>
+        <v>3486228000000</v>
       </c>
       <c r="I56" t="n">
-        <v>3601918000000</v>
+        <v>4006661000000</v>
       </c>
       <c r="J56" t="n">
-        <v>3403365000000</v>
+        <v>4141516000000</v>
       </c>
       <c r="K56" t="n">
-        <v>3256425000000</v>
+        <v>4403501000000</v>
       </c>
       <c r="L56" t="n">
-        <v>3486228000000</v>
+        <v>5298156000000</v>
       </c>
       <c r="M56" t="n">
-        <v>4006661000000</v>
-      </c>
-      <c r="N56" t="n">
-        <v>4141516000000</v>
-      </c>
-      <c r="O56" t="n">
-        <v>4403501000000</v>
-      </c>
-      <c r="P56" t="n">
-        <v>5298156000000</v>
-      </c>
-      <c r="Q56" t="n">
         <v>5479680000000</v>
       </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2521,38 +2329,32 @@
           <t>3. Đầu tư góp vốn vào đơn vị khác</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="n">
-        <v>2413000000</v>
-      </c>
-      <c r="D57" t="n">
-        <v>2413000000</v>
-      </c>
-      <c r="E57" t="n">
+      <c r="B57" t="n">
         <v>3013000000</v>
       </c>
-      <c r="F57" t="n">
-        <v>3013000000</v>
-      </c>
-      <c r="G57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>1966875000000</v>
+      </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>1966875000000</v>
-      </c>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
+        <v>32798000000</v>
+      </c>
+      <c r="L57" t="n">
+        <v>32798000000</v>
+      </c>
+      <c r="M57" t="n">
+        <v>32798000000</v>
+      </c>
       <c r="N57" t="inlineStr"/>
-      <c r="O57" t="n">
-        <v>32798000000</v>
-      </c>
-      <c r="P57" t="n">
-        <v>32798000000</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>32798000000</v>
-      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2561,51 +2363,43 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1585423000000</v>
+        <v>1949865000000</v>
       </c>
       <c r="C58" t="n">
-        <v>1924402000000</v>
+        <v>2019202000000</v>
       </c>
       <c r="D58" t="n">
-        <v>2001920000000</v>
+        <v>2005366000000</v>
       </c>
       <c r="E58" t="n">
-        <v>1990366000000</v>
+        <v>2047343000000</v>
       </c>
       <c r="F58" t="n">
-        <v>1949865000000</v>
-      </c>
-      <c r="G58" t="n">
-        <v>2019202000000</v>
-      </c>
+        <v>1843513000000</v>
+      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
-        <v>2005366000000</v>
+        <v>2039436000000</v>
       </c>
       <c r="I58" t="n">
-        <v>2047343000000</v>
+        <v>2096223000000</v>
       </c>
       <c r="J58" t="n">
-        <v>1843513000000</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
+        <v>2152630000000</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2331870000000</v>
+      </c>
       <c r="L58" t="n">
-        <v>2039436000000</v>
+        <v>2268877000000</v>
       </c>
       <c r="M58" t="n">
-        <v>2096223000000</v>
-      </c>
-      <c r="N58" t="n">
-        <v>2152630000000</v>
-      </c>
-      <c r="O58" t="n">
-        <v>2331870000000</v>
-      </c>
-      <c r="P58" t="n">
-        <v>2268877000000</v>
-      </c>
-      <c r="Q58" t="n">
         <v>2221680000000</v>
       </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2614,51 +2408,43 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>23530000000</v>
+        <v>17768000000</v>
       </c>
       <c r="C59" t="n">
-        <v>22090000000</v>
-      </c>
-      <c r="D59" t="n">
-        <v>20649000000</v>
-      </c>
+        <v>16327000000</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
-        <v>19208000000</v>
+        <v>13446000000</v>
       </c>
       <c r="F59" t="n">
-        <v>17768000000</v>
+        <v>12005000000</v>
       </c>
       <c r="G59" t="n">
-        <v>16327000000</v>
-      </c>
-      <c r="H59" t="inlineStr"/>
+        <v>10565000000</v>
+      </c>
+      <c r="H59" t="n">
+        <v>9124000000</v>
+      </c>
       <c r="I59" t="n">
-        <v>13446000000</v>
+        <v>7683000000</v>
       </c>
       <c r="J59" t="n">
-        <v>12005000000</v>
+        <v>6243000000</v>
       </c>
       <c r="K59" t="n">
-        <v>10565000000</v>
+        <v>4799000000</v>
       </c>
       <c r="L59" t="n">
-        <v>9124000000</v>
+        <v>3358000000</v>
       </c>
       <c r="M59" t="n">
-        <v>7683000000</v>
-      </c>
-      <c r="N59" t="n">
-        <v>6243000000</v>
-      </c>
-      <c r="O59" t="n">
-        <v>4799000000</v>
-      </c>
-      <c r="P59" t="n">
-        <v>3358000000</v>
-      </c>
-      <c r="Q59" t="n">
         <v>1918000000</v>
       </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2851,53 +2637,45 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>217245156000000</v>
+        <v>273289529000000</v>
       </c>
       <c r="C68" t="n">
-        <v>229477262000000</v>
+        <v>319127257000000</v>
       </c>
       <c r="D68" t="n">
-        <v>231773724000000</v>
+        <v>325821442000000</v>
       </c>
       <c r="E68" t="n">
-        <v>242445051000000</v>
+        <v>330969917000000</v>
       </c>
       <c r="F68" t="n">
-        <v>273289529000000</v>
+        <v>346355019000000</v>
       </c>
       <c r="G68" t="n">
-        <v>319127257000000</v>
+        <v>374611571000000</v>
       </c>
       <c r="H68" t="n">
-        <v>325821442000000</v>
+        <v>381046023000000</v>
       </c>
       <c r="I68" t="n">
-        <v>330969917000000</v>
+        <v>384266740000000</v>
       </c>
       <c r="J68" t="n">
-        <v>346355019000000</v>
+        <v>399152573000000</v>
       </c>
       <c r="K68" t="n">
-        <v>374611571000000</v>
+        <v>416273023000000</v>
       </c>
       <c r="L68" t="n">
-        <v>381046023000000</v>
+        <v>458802678000000</v>
       </c>
       <c r="M68" t="n">
-        <v>384266740000000</v>
-      </c>
-      <c r="N68" t="n">
-        <v>399152573000000</v>
-      </c>
-      <c r="O68" t="n">
-        <v>416273023000000</v>
-      </c>
-      <c r="P68" t="n">
-        <v>458802678000000</v>
-      </c>
-      <c r="Q68" t="n">
         <v>483935823000000</v>
       </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2906,53 +2684,45 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2205063000000</v>
+        <v>159657000000</v>
       </c>
       <c r="C69" t="n">
-        <v>209151000000</v>
+        <v>142771000000</v>
       </c>
       <c r="D69" t="n">
-        <v>602990000000</v>
+        <v>130009000000</v>
       </c>
       <c r="E69" t="n">
-        <v>181767000000</v>
+        <v>117309000000</v>
       </c>
       <c r="F69" t="n">
-        <v>159657000000</v>
+        <v>104874000000</v>
       </c>
       <c r="G69" t="n">
-        <v>142771000000</v>
+        <v>92656000000</v>
       </c>
       <c r="H69" t="n">
-        <v>130009000000</v>
+        <v>81615000000</v>
       </c>
       <c r="I69" t="n">
-        <v>117309000000</v>
+        <v>69414000000</v>
       </c>
       <c r="J69" t="n">
-        <v>104874000000</v>
+        <v>58565000000</v>
       </c>
       <c r="K69" t="n">
-        <v>92656000000</v>
+        <v>10821258000000</v>
       </c>
       <c r="L69" t="n">
-        <v>81615000000</v>
+        <v>36079000000</v>
       </c>
       <c r="M69" t="n">
-        <v>69414000000</v>
-      </c>
-      <c r="N69" t="n">
-        <v>58565000000</v>
-      </c>
-      <c r="O69" t="n">
-        <v>10821258000000</v>
-      </c>
-      <c r="P69" t="n">
-        <v>36079000000</v>
-      </c>
-      <c r="Q69" t="n">
         <v>30124000000</v>
       </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3168,53 +2938,45 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>42943712000000</v>
+        <v>41769606000000</v>
       </c>
       <c r="C79" t="n">
-        <v>45977699000000</v>
+        <v>75175573000000</v>
       </c>
       <c r="D79" t="n">
-        <v>43244856000000</v>
+        <v>69869067000000</v>
       </c>
       <c r="E79" t="n">
-        <v>32358700000000</v>
+        <v>60258786000000</v>
       </c>
       <c r="F79" t="n">
-        <v>41769606000000</v>
+        <v>81351880000000</v>
       </c>
       <c r="G79" t="n">
-        <v>75175573000000</v>
+        <v>107242582000000</v>
       </c>
       <c r="H79" t="n">
-        <v>69869067000000</v>
+        <v>93473766000000</v>
       </c>
       <c r="I79" t="n">
-        <v>60258786000000</v>
+        <v>86186983000000</v>
       </c>
       <c r="J79" t="n">
-        <v>81351880000000</v>
+        <v>99636997000000</v>
       </c>
       <c r="K79" t="n">
-        <v>107242582000000</v>
+        <v>92653200000000</v>
       </c>
       <c r="L79" t="n">
-        <v>93473766000000</v>
+        <v>97327589000000</v>
       </c>
       <c r="M79" t="n">
-        <v>86186983000000</v>
-      </c>
-      <c r="N79" t="n">
-        <v>99636997000000</v>
-      </c>
-      <c r="O79" t="n">
-        <v>92653200000000</v>
-      </c>
-      <c r="P79" t="n">
-        <v>97327589000000</v>
-      </c>
-      <c r="Q79" t="n">
         <v>62766342000000</v>
       </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3223,53 +2985,45 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>27328301000000</v>
+        <v>27299094000000</v>
       </c>
       <c r="C80" t="n">
-        <v>26220754000000</v>
+        <v>38994467000000</v>
       </c>
       <c r="D80" t="n">
-        <v>23268690000000</v>
+        <v>44790246000000</v>
       </c>
       <c r="E80" t="n">
-        <v>19128900000000</v>
+        <v>31820877000000</v>
       </c>
       <c r="F80" t="n">
-        <v>27299094000000</v>
+        <v>49979397000000</v>
       </c>
       <c r="G80" t="n">
-        <v>38994467000000</v>
+        <v>59851704000000</v>
       </c>
       <c r="H80" t="n">
-        <v>44790246000000</v>
+        <v>52734954000000</v>
       </c>
       <c r="I80" t="n">
-        <v>31820877000000</v>
+        <v>43214989000000</v>
       </c>
       <c r="J80" t="n">
-        <v>49979397000000</v>
+        <v>58216738000000</v>
       </c>
       <c r="K80" t="n">
-        <v>59851704000000</v>
+        <v>49440640000000</v>
       </c>
       <c r="L80" t="n">
-        <v>52734954000000</v>
+        <v>53660498000000</v>
       </c>
       <c r="M80" t="n">
-        <v>43214989000000</v>
-      </c>
-      <c r="N80" t="n">
-        <v>58216738000000</v>
-      </c>
-      <c r="O80" t="n">
-        <v>49440640000000</v>
-      </c>
-      <c r="P80" t="n">
-        <v>53660498000000</v>
-      </c>
-      <c r="Q80" t="n">
         <v>23760794000000</v>
       </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3278,53 +3032,45 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>15615411000000</v>
+        <v>14470512000000</v>
       </c>
       <c r="C81" t="n">
-        <v>19756945000000</v>
+        <v>36181106000000</v>
       </c>
       <c r="D81" t="n">
-        <v>19976166000000</v>
+        <v>25078821000000</v>
       </c>
       <c r="E81" t="n">
-        <v>13229800000000</v>
+        <v>28437909000000</v>
       </c>
       <c r="F81" t="n">
-        <v>14470512000000</v>
+        <v>31372483000000</v>
       </c>
       <c r="G81" t="n">
-        <v>36181106000000</v>
+        <v>47390878000000</v>
       </c>
       <c r="H81" t="n">
-        <v>25078821000000</v>
+        <v>40738812000000</v>
       </c>
       <c r="I81" t="n">
-        <v>28437909000000</v>
+        <v>42971994000000</v>
       </c>
       <c r="J81" t="n">
-        <v>31372483000000</v>
+        <v>41420259000000</v>
       </c>
       <c r="K81" t="n">
-        <v>47390878000000</v>
+        <v>43212560000000</v>
       </c>
       <c r="L81" t="n">
-        <v>40738812000000</v>
+        <v>43667091000000</v>
       </c>
       <c r="M81" t="n">
-        <v>42971994000000</v>
-      </c>
-      <c r="N81" t="n">
-        <v>41420259000000</v>
-      </c>
-      <c r="O81" t="n">
-        <v>43212560000000</v>
-      </c>
-      <c r="P81" t="n">
-        <v>43667091000000</v>
-      </c>
-      <c r="Q81" t="n">
         <v>39005548000000</v>
       </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3379,53 +3125,45 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>124917876000000</v>
+        <v>168443457000000</v>
       </c>
       <c r="C84" t="n">
-        <v>126018576000000</v>
+        <v>174620270000000</v>
       </c>
       <c r="D84" t="n">
-        <v>132822498000000</v>
+        <v>184987517000000</v>
       </c>
       <c r="E84" t="n">
-        <v>149805037000000</v>
+        <v>198533937000000</v>
       </c>
       <c r="F84" t="n">
-        <v>168443457000000</v>
+        <v>194429468000000</v>
       </c>
       <c r="G84" t="n">
-        <v>174620270000000</v>
+        <v>183283118000000</v>
       </c>
       <c r="H84" t="n">
-        <v>184987517000000</v>
+        <v>201490028000000</v>
       </c>
       <c r="I84" t="n">
-        <v>198533937000000</v>
+        <v>212520096000000</v>
       </c>
       <c r="J84" t="n">
-        <v>194429468000000</v>
+        <v>207780769000000</v>
       </c>
       <c r="K84" t="n">
-        <v>183283118000000</v>
+        <v>215797174000000</v>
       </c>
       <c r="L84" t="n">
-        <v>201490028000000</v>
+        <v>249802943000000</v>
       </c>
       <c r="M84" t="n">
-        <v>212520096000000</v>
-      </c>
-      <c r="N84" t="n">
-        <v>207780769000000</v>
-      </c>
-      <c r="O84" t="n">
-        <v>215797174000000</v>
-      </c>
-      <c r="P84" t="n">
-        <v>249802943000000</v>
-      </c>
-      <c r="Q84" t="n">
         <v>309645137000000</v>
       </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3640,41 +3378,35 @@
           <t>10. Cổ phiếu ưu đãi</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
+      <c r="B94" t="n">
+        <v>31072000000</v>
+      </c>
       <c r="C94" t="n">
-        <v>14262000000</v>
-      </c>
-      <c r="D94" t="n">
-        <v>23069000000</v>
-      </c>
-      <c r="E94" t="n">
-        <v>52629000000</v>
-      </c>
-      <c r="F94" t="n">
-        <v>31072000000</v>
-      </c>
+        <v>215182000000</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
       <c r="G94" t="n">
-        <v>215182000000</v>
-      </c>
-      <c r="H94" t="inlineStr"/>
+        <v>15550000000</v>
+      </c>
+      <c r="H94" t="n">
+        <v>45007000000</v>
+      </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>179100000000</v>
+      </c>
       <c r="K94" t="n">
-        <v>15550000000</v>
+        <v>226480000000</v>
       </c>
       <c r="L94" t="n">
-        <v>45007000000</v>
+        <v>76916000000</v>
       </c>
       <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
-        <v>179100000000</v>
-      </c>
-      <c r="O94" t="n">
-        <v>226480000000</v>
-      </c>
-      <c r="P94" t="n">
-        <v>76916000000</v>
-      </c>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -3753,53 +3485,45 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>197651382000000</v>
+        <v>249404367000000</v>
       </c>
       <c r="C98" t="n">
-        <v>209096146000000</v>
+        <v>294423432000000</v>
       </c>
       <c r="D98" t="n">
-        <v>210385915000000</v>
+        <v>299409970000000</v>
       </c>
       <c r="E98" t="n">
-        <v>219751209000000</v>
+        <v>303239461000000</v>
       </c>
       <c r="F98" t="n">
-        <v>249404367000000</v>
+        <v>317084891000000</v>
       </c>
       <c r="G98" t="n">
-        <v>294423432000000</v>
+        <v>343821459000000</v>
       </c>
       <c r="H98" t="n">
-        <v>299409970000000</v>
+        <v>348234538000000</v>
       </c>
       <c r="I98" t="n">
-        <v>303239461000000</v>
+        <v>348899749000000</v>
       </c>
       <c r="J98" t="n">
-        <v>317084891000000</v>
+        <v>361989908000000</v>
       </c>
       <c r="K98" t="n">
-        <v>343821459000000</v>
+        <v>377278137000000</v>
       </c>
       <c r="L98" t="n">
-        <v>348234538000000</v>
+        <v>417974887000000</v>
       </c>
       <c r="M98" t="n">
-        <v>348899749000000</v>
-      </c>
-      <c r="N98" t="n">
-        <v>361989908000000</v>
-      </c>
-      <c r="O98" t="n">
-        <v>377278137000000</v>
-      </c>
-      <c r="P98" t="n">
-        <v>417974887000000</v>
-      </c>
-      <c r="Q98" t="n">
         <v>443459075000000</v>
       </c>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3834,50 +3558,42 @@
         <v>9810000000000</v>
       </c>
       <c r="C100" t="n">
-        <v>9810000000000</v>
+        <v>16088488000000</v>
       </c>
       <c r="D100" t="n">
-        <v>9810000000000</v>
+        <v>16088488000000</v>
       </c>
       <c r="E100" t="n">
-        <v>9810000000000</v>
+        <v>16088488000000</v>
       </c>
       <c r="F100" t="n">
-        <v>9810000000000</v>
+        <v>16088488000000</v>
       </c>
       <c r="G100" t="n">
-        <v>16088488000000</v>
+        <v>20072906000000</v>
       </c>
       <c r="H100" t="n">
-        <v>16088488000000</v>
+        <v>20072906000000</v>
       </c>
       <c r="I100" t="n">
-        <v>16088488000000</v>
+        <v>20272906000000</v>
       </c>
       <c r="J100" t="n">
-        <v>16088488000000</v>
+        <v>20272906000000</v>
       </c>
       <c r="K100" t="n">
-        <v>20072906000000</v>
+        <v>25303429000000</v>
       </c>
       <c r="L100" t="n">
-        <v>20072906000000</v>
+        <v>25303429000000</v>
       </c>
       <c r="M100" t="n">
-        <v>20272906000000</v>
-      </c>
-      <c r="N100" t="n">
-        <v>20272906000000</v>
-      </c>
-      <c r="O100" t="n">
         <v>25303429000000</v>
       </c>
-      <c r="P100" t="n">
-        <v>25303429000000</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>25303429000000</v>
-      </c>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3967,18 +3683,10 @@
       <c r="M103" t="n">
         <v>89000000</v>
       </c>
-      <c r="N103" t="n">
-        <v>89000000</v>
-      </c>
-      <c r="O103" t="n">
-        <v>89000000</v>
-      </c>
-      <c r="P103" t="n">
-        <v>89000000</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>89000000</v>
-      </c>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3987,19 +3695,19 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2042255000000</v>
+        <v>1984838000000</v>
       </c>
       <c r="C104" t="n">
-        <v>2042255000000</v>
+        <v>535956000000</v>
       </c>
       <c r="D104" t="n">
-        <v>1984937000000</v>
+        <v>535956000000</v>
       </c>
       <c r="E104" t="n">
-        <v>1984838000000</v>
+        <v>535956000000</v>
       </c>
       <c r="F104" t="n">
-        <v>1984838000000</v>
+        <v>535956000000</v>
       </c>
       <c r="G104" t="n">
         <v>535956000000</v>
@@ -4022,18 +3730,10 @@
       <c r="M104" t="n">
         <v>535956000000</v>
       </c>
-      <c r="N104" t="n">
-        <v>535956000000</v>
-      </c>
-      <c r="O104" t="n">
-        <v>535956000000</v>
-      </c>
-      <c r="P104" t="n">
-        <v>535956000000</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>535956000000</v>
-      </c>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4042,19 +3742,19 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-2000000</v>
+        <v>-413420000000</v>
       </c>
       <c r="C105" t="n">
-        <v>-158929000000</v>
+        <v>-413448000000</v>
       </c>
       <c r="D105" t="n">
-        <v>-413365000000</v>
+        <v>-413448000000</v>
       </c>
       <c r="E105" t="n">
-        <v>-413420000000</v>
+        <v>-413448000000</v>
       </c>
       <c r="F105" t="n">
-        <v>-413420000000</v>
+        <v>-413448000000</v>
       </c>
       <c r="G105" t="n">
         <v>-413448000000</v>
@@ -4077,18 +3777,10 @@
       <c r="M105" t="n">
         <v>-413448000000</v>
       </c>
-      <c r="N105" t="n">
-        <v>-413448000000</v>
-      </c>
-      <c r="O105" t="n">
-        <v>-413448000000</v>
-      </c>
-      <c r="P105" t="n">
-        <v>-413448000000</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>-413448000000</v>
-      </c>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4212,43 +3904,37 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1189112000000</v>
-      </c>
-      <c r="C111" t="n">
-        <v>1248389000000</v>
-      </c>
+        <v>1789350000000</v>
+      </c>
+      <c r="C111" t="inlineStr"/>
       <c r="D111" t="n">
-        <v>1246161000000</v>
+        <v>1844467000000</v>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="n">
-        <v>1789350000000</v>
-      </c>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="n">
-        <v>1844467000000</v>
-      </c>
+        <v>2492954000000</v>
+      </c>
+      <c r="G111" t="n">
+        <v>2547465000000</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>2492954000000</v>
+        <v>3465624000000</v>
       </c>
       <c r="K111" t="n">
-        <v>2547465000000</v>
-      </c>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
-        <v>3465624000000</v>
-      </c>
-      <c r="O111" t="n">
         <v>3527727000000</v>
       </c>
-      <c r="P111" t="n">
+      <c r="L111" t="n">
         <v>3522957000000</v>
       </c>
-      <c r="Q111" t="n">
+      <c r="M111" t="n">
         <v>4692965000000</v>
       </c>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4372,45 +4058,39 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>8091000000</v>
+        <v>27795000000</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>19370000000</v>
+        <v>29923000000</v>
       </c>
       <c r="E117" t="n">
-        <v>15159000000</v>
+        <v>37952000000</v>
       </c>
       <c r="F117" t="n">
-        <v>27795000000</v>
+        <v>64586000000</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>29923000000</v>
+        <v>13793000000</v>
       </c>
       <c r="I117" t="n">
-        <v>37952000000</v>
+        <v>-13793000000</v>
       </c>
       <c r="J117" t="n">
-        <v>64586000000</v>
+        <v>-37318000000</v>
       </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
-        <v>13793000000</v>
+        <v>18963000000</v>
       </c>
       <c r="M117" t="n">
-        <v>-13793000000</v>
-      </c>
-      <c r="N117" t="n">
-        <v>-37318000000</v>
-      </c>
+        <v>16034000000</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
-      <c r="P117" t="n">
-        <v>18963000000</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>16034000000</v>
-      </c>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
